--- a/internal data/annotation_orthogroup_genes.xlsx
+++ b/internal data/annotation_orthogroup_genes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91277b806043e344/MSci Bahler lab/S.-Pombe-MLPs - Github/Supplementary material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/S.-Pombe-MLPs/internal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{541EC78D-0C7F-5E45-99AE-C5F526FE72DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFD2151B-F8CC-B845-A3F6-857B19C32636}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0DCBBD-BFAE-DD4D-B555-5DDFE9627B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="2240" windowWidth="26840" windowHeight="15660" xr2:uid="{F0EBCAF1-FA98-A94F-8D4F-E889AD72DF6A}"/>
+    <workbookView xWindow="560" yWindow="2060" windowWidth="22640" windowHeight="15660" xr2:uid="{F0EBCAF1-FA98-A94F-8D4F-E889AD72DF6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>snf5</t>
   </si>
@@ -144,13 +144,31 @@
   </si>
   <si>
     <t>Golgi mannan polymerase I complex subunit Mnn9</t>
+  </si>
+  <si>
+    <t>amk2</t>
+  </si>
+  <si>
+    <t>serine/threonine protein kinase AMPK (beta) regulatory subunit Amk2</t>
+  </si>
+  <si>
+    <t>mub1</t>
+  </si>
+  <si>
+    <t>scr1</t>
+  </si>
+  <si>
+    <t>DNA-binding transcription repressor, glucose sensing, Scr1</t>
+  </si>
+  <si>
+    <t>armadillo-type fold protein, Mub1-Rad6-Ubr2 ubiquitin ligase complex Mub1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,13 +184,19 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -246,17 +270,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,14 +300,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,7 +341,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -425,7 +447,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,7 +589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,180 +597,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E13D51C-7A86-224C-A114-DA28C78B1105}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="58.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>